--- a/src/main/resources/testExcels/complexSheet.xlsx
+++ b/src/main/resources/testExcels/complexSheet.xlsx
@@ -1,31 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProgramProject\SimpleWorkbookMapper\src\main\resources\testExcels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A83C5D-82BC-4921-82A6-F8A40DF3B971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+  <si>
+    <t>基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资实发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +144,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +438,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1101</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>5001</v>
+      </c>
+      <c r="F3">
+        <v>3000</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>3001</v>
+      </c>
+      <c r="I3">
+        <f>SUM(D3:H3)</f>
+        <v>13002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>3002</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I8" si="0">SUM(D4:H4)</f>
+        <v>12002</v>
+      </c>
+      <c r="J4" s="2">
+        <v>45941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5">
+        <v>5001</v>
+      </c>
+      <c r="F5">
+        <v>3000</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>3003</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>12004</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E6">
+        <v>5002</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>3004</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>13008</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1103</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="E7">
+        <v>5006</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>3005</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>13014</v>
+      </c>
+      <c r="J7" s="2">
+        <v>45914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8">
+        <v>5001</v>
+      </c>
+      <c r="F8">
+        <v>3000</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>3006</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>12007</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45945</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>